--- a/readme/manuals/Berekening capaciteit - hardheid - AQMOS Waterontharders.xlsx
+++ b/readme/manuals/Berekening capaciteit - hardheid - AQMOS Waterontharders.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fonske\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive Aqmos\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A992915-6949-4285-950B-56E8C5A63A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F74C61-9B2F-4BEA-BCFF-F0F1EDF604D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAFCFBBE-F434-4872-BD78-77559D0951A9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAFCFBBE-F434-4872-BD78-77559D0951A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <r>
       <t>Hardheid (</t>
@@ -102,6 +111,24 @@
   </si>
   <si>
     <t>Wij raden de volgende waarde aan om in te stellen (10% marge):</t>
+  </si>
+  <si>
+    <t>Voer bovenstaande waardes in bij C=. (Navigeer naar menu: ↳ + ⭣) Let op dat je de waterontharder hebt ingesteld op dH in plaats van PPM! (Zelfde menu, waarde "U" instellen op dH). Vergeet niet je hardheid in te stellen! (Navigeer naar menu: ↳ + ⭡)</t>
+  </si>
+  <si>
+    <t>C 25</t>
+  </si>
+  <si>
+    <t>C 37</t>
+  </si>
+  <si>
+    <t>C 63</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>C-waarde</t>
   </si>
 </sst>
 </file>
@@ -245,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -474,11 +501,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,12 +556,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -569,11 +612,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <strike val="0"/>
@@ -596,6 +660,13 @@
         <bottom style="thin">
           <color theme="2"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="2"/>
+        </left>
       </border>
     </dxf>
   </dxfs>
@@ -665,8 +736,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEDD12D1-D79C-44BA-B700-8A189105B132}" name="Table1" displayName="Table1" ref="N3:O6" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="N3:O6" xr:uid="{BEDD12D1-D79C-44BA-B700-8A189105B132}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E153B9C3-4894-4743-9A6B-9BCD92DC1C59}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{8EECEC1E-E502-4441-B64A-7D79B57C0021}" name="C-waarde"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -962,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D0E8CD-2BC6-46D3-9B9D-73FD7ED977E9}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E13" sqref="E13:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,552 +1056,614 @@
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="10" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="str">
         <f>B3</f>
-        <v>Anders</v>
-      </c>
-      <c r="L2" s="17">
+        <v>LESS-10</v>
+      </c>
+      <c r="L2" s="15">
         <v>-0.1</v>
       </c>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="42"/>
+      <c r="N3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="str">
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="43"/>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="str">
         <f>IF($B$3="Anders", "Aantal liters hars:", "")</f>
-        <v>Aantal liters hars:</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+        <v/>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="J5" s="4">
         <v>7.5</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J5*0.17811)*Data!$F$2), 100)</f>
-        <v>3200</v>
-      </c>
-      <c r="L5" s="16">
+        <v>3700</v>
+      </c>
+      <c r="L5" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J5*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>2800</v>
-      </c>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27">
-        <v>8</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+        <v>3300</v>
+      </c>
+      <c r="M5" s="44"/>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="J6" s="5">
         <v>10</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J6*0.17811)*Data!$F$2), 100)</f>
-        <v>2400</v>
-      </c>
-      <c r="L6" s="16">
+        <v>2800</v>
+      </c>
+      <c r="L6" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J6*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>2100</v>
-      </c>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+        <v>2500</v>
+      </c>
+      <c r="M6" s="44"/>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="J7" s="6">
         <v>11</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J7*0.17811)*Data!$F$2), 100)</f>
-        <v>2100</v>
-      </c>
-      <c r="L7" s="16">
+        <v>2500</v>
+      </c>
+      <c r="L7" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J7*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1900</v>
-      </c>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2200</v>
+      </c>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="J8" s="5">
         <v>12</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J8*0.17811)*Data!$F$2), 100)</f>
-        <v>2000</v>
-      </c>
-      <c r="L8" s="16">
+        <v>2300</v>
+      </c>
+      <c r="L8" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J8*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1800</v>
-      </c>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24">
+        <v>2100</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="41"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="22">
         <v>10</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="J9" s="6">
         <v>13</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J9*0.17811)*Data!$F$2), 100)</f>
-        <v>1800</v>
-      </c>
-      <c r="L9" s="16">
+        <v>2100</v>
+      </c>
+      <c r="L9" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J9*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1600</v>
-      </c>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1900</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="41"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J10" s="5">
         <v>14</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J10*0.17811)*Data!$F$2), 100)</f>
-        <v>1700</v>
-      </c>
-      <c r="L10" s="16">
+        <v>2000</v>
+      </c>
+      <c r="L10" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J10*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1500</v>
-      </c>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1800</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="41"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J11" s="6">
         <v>15</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J11*0.17811)*Data!$F$2), 100)</f>
+        <v>1800</v>
+      </c>
+      <c r="L11" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J11*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>1600</v>
       </c>
-      <c r="L11" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J11*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1400</v>
-      </c>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="M11" s="11"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="41"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="35">
+      <c r="C12" s="34"/>
+      <c r="D12" s="33">
         <f>FLOOR(((Data!$G$2*1000)/($B$9*0.17811)*Data!$F$2), 100)</f>
-        <v>2400</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+        <v>2800</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="J12" s="5">
         <v>16</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J12*0.17811)*Data!$F$2), 100)</f>
+        <v>1700</v>
+      </c>
+      <c r="L12" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J12*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>1500</v>
       </c>
-      <c r="L12" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J12*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1300</v>
-      </c>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="M12" s="11"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="41"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="22">
+      <c r="C13" s="34"/>
+      <c r="D13" s="20">
         <f>FLOOR(((Data!$G$2*1000)/($B$9*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>2100</v>
-      </c>
-      <c r="E13" s="39" t="str">
-        <f>IF(D13&lt;&gt;"", IF(ISNUMBER(SEARCH("LESS", B3)), "⭠Voer deze waarde in bij C=. (Navigeer naar menu: ↳ + ⭣) Let op dat je de waterontharder hebt ingesteld op dH in plaats van PPM! (Zelfde menu bij waarde U). Vergeet niet je hardheid in te stellen! (Navigeer naar menu: ↳ + ⭡)", "⭠Voer de waarde in bij de instelling REG.CAP in het volgende format 00.00T. Bijvoorbeeld 3200L = 03.20T"), "")</f>
-        <v>⭠Voer de waarde in bij de instelling REG.CAP in het volgende format 00.00T. Bijvoorbeeld 3200L = 03.20T</v>
-      </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+        <v>2500</v>
+      </c>
+      <c r="E13" s="37" t="str">
+        <f>IF(D13&lt;&gt;"", IF(ISNUMBER(SEARCH("LESS", B3)), "⭠Voer deze waarde NIET in bij C=. Deze waarde is puur indicatief. Zie de C waarde naast de tabel.", "⭠Voer de waarde in bij de instelling REG.CAP in het volgende format 00.00T. Bijvoorbeeld 3200L = 03.20T"), "")</f>
+        <v>⭠Voer deze waarde NIET in bij C=. Deze waarde is puur indicatief. Zie de C waarde naast de tabel.</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="J13" s="6">
         <v>17</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J13*0.17811)*Data!$F$2), 100)</f>
+        <v>1600</v>
+      </c>
+      <c r="L13" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J13*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>1400</v>
       </c>
-      <c r="L13" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J13*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1200</v>
-      </c>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
+      <c r="M13" s="11"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="C14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="J14" s="5">
         <v>18</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J14*0.17811)*Data!$F$2), 100)</f>
-        <v>1300</v>
-      </c>
-      <c r="L14" s="16">
+        <v>1500</v>
+      </c>
+      <c r="L14" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J14*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1200</v>
-      </c>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+        <v>1400</v>
+      </c>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="J15" s="6">
         <v>19</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J15*0.17811)*Data!$F$2), 100)</f>
-        <v>1200</v>
-      </c>
-      <c r="L15" s="16">
+        <v>1400</v>
+      </c>
+      <c r="L15" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J15*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1100</v>
-      </c>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+        <v>1300</v>
+      </c>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="J16" s="5">
         <v>20</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J16*0.17811)*Data!$F$2), 100)</f>
+        <v>1400</v>
+      </c>
+      <c r="L16" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J16*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>1200</v>
       </c>
-      <c r="L16" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J16*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1000</v>
-      </c>
-      <c r="M16" s="13"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
       <c r="J17" s="6">
         <v>21</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J17*0.17811)*Data!$F$2), 100)</f>
-        <v>1100</v>
-      </c>
-      <c r="L17" s="16">
+        <v>1300</v>
+      </c>
+      <c r="L17" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J17*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>1000</v>
-      </c>
-      <c r="M17" s="13"/>
+        <v>1200</v>
+      </c>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="J18" s="5">
         <v>22</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J18*0.17811)*Data!$F$2), 100)</f>
-        <v>1000</v>
-      </c>
-      <c r="L18" s="16">
+        <v>1200</v>
+      </c>
+      <c r="L18" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J18*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>900</v>
-      </c>
-      <c r="M18" s="13"/>
+        <v>1100</v>
+      </c>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
       <c r="J19" s="6">
         <v>23</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J19*0.17811)*Data!$F$2), 100)</f>
+        <v>1200</v>
+      </c>
+      <c r="L19" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J19*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>1000</v>
       </c>
-      <c r="L19" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J19*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>900</v>
-      </c>
-      <c r="M19" s="13"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J20" s="5">
         <v>24</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J20*0.17811)*Data!$F$2), 100)</f>
+        <v>1100</v>
+      </c>
+      <c r="L20" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J20*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>1000</v>
       </c>
-      <c r="L20" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J20*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>900</v>
-      </c>
-      <c r="M20" s="13"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J21" s="6">
         <v>25</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J21*0.17811)*Data!$F$2), 100)</f>
-        <v>900</v>
-      </c>
-      <c r="L21" s="16">
+        <v>1100</v>
+      </c>
+      <c r="L21" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J21*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>800</v>
-      </c>
-      <c r="M21" s="13"/>
+        <v>1000</v>
+      </c>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J22" s="5">
         <v>26</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J22*0.17811)*Data!$F$2), 100)</f>
+        <v>1000</v>
+      </c>
+      <c r="L22" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J22*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>900</v>
       </c>
-      <c r="L22" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J22*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>800</v>
-      </c>
-      <c r="M22" s="13"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J23" s="6">
         <v>27</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J23*0.17811)*Data!$F$2), 100)</f>
-        <v>800</v>
-      </c>
-      <c r="L23" s="16">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J23*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>800</v>
-      </c>
-      <c r="M23" s="13"/>
+        <v>900</v>
+      </c>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J24" s="5">
         <v>28</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J24*0.17811)*Data!$F$2), 100)</f>
-        <v>800</v>
-      </c>
-      <c r="L24" s="16">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J24*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>700</v>
-      </c>
-      <c r="M24" s="13"/>
+        <v>900</v>
+      </c>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J25" s="6">
         <v>29</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J25*0.17811)*Data!$F$2), 100)</f>
+        <v>900</v>
+      </c>
+      <c r="L25" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J25*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>800</v>
       </c>
-      <c r="L25" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J25*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>700</v>
-      </c>
-      <c r="M25" s="13"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J26" s="5">
         <v>30</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J26*0.17811)*Data!$F$2), 100)</f>
+        <v>900</v>
+      </c>
+      <c r="L26" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J26*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>800</v>
       </c>
-      <c r="L26" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J26*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>700</v>
-      </c>
-      <c r="M26" s="13"/>
+      <c r="M26" s="11"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="6">
         <v>31</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J27*0.17811)*Data!$F$2), 100)</f>
-        <v>700</v>
-      </c>
-      <c r="L27" s="16">
+        <v>900</v>
+      </c>
+      <c r="L27" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J27*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>700</v>
-      </c>
-      <c r="M27" s="13"/>
+        <v>800</v>
+      </c>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="5">
         <v>32</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J28*0.17811)*Data!$F$2), 100)</f>
+        <v>800</v>
+      </c>
+      <c r="L28" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J28*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>700</v>
       </c>
-      <c r="L28" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J28*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>600</v>
-      </c>
-      <c r="M28" s="13"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J29" s="6">
         <v>33</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J29*0.17811)*Data!$F$2), 100)</f>
+        <v>800</v>
+      </c>
+      <c r="L29" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J29*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>700</v>
       </c>
-      <c r="L29" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J29*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>600</v>
-      </c>
-      <c r="M29" s="13"/>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J30" s="7">
         <v>34</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J30*0.17811)*Data!$F$2), 100)</f>
+        <v>800</v>
+      </c>
+      <c r="L30" s="14">
+        <f>FLOOR(((Data!$G$2*1000)/(J30*0.17811)*Data!$F$2)*0.9, 100)</f>
         <v>700</v>
       </c>
-      <c r="L30" s="16">
-        <f>FLOOR(((Data!$G$2*1000)/(J30*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>600</v>
-      </c>
-      <c r="M30" s="13"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J31" s="8">
         <v>35</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J31*0.17811)*Data!$F$2), 100)</f>
-        <v>600</v>
-      </c>
-      <c r="L31" s="16">
+        <v>800</v>
+      </c>
+      <c r="L31" s="14">
         <f>FLOOR(((Data!$G$2*1000)/(J31*0.17811)*Data!$F$2)*0.9, 100)</f>
-        <v>600</v>
-      </c>
-      <c r="M31" s="13"/>
+        <v>700</v>
+      </c>
+      <c r="M31" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E13:H16"/>
+    <mergeCell ref="N8:R13"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D2:H9"/>
     <mergeCell ref="B14:C16"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E13:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -1529,6 +1673,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1558,10 +1705,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F1" t="s">
@@ -1572,54 +1719,54 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="27"/>
       <c r="F2">
         <f>IF(Dashboard!$B$3="LESS-10",10,IF(Dashboard!$B$3="LESS-15",15,IF(Dashboard!$B$3="LESS-20",20,IF(Dashboard!$B$3="R2D2-32",8,IF(Dashboard!$B$3="R2D2-48",12,IF(Dashboard!$B$3="R2D2-72",18,Dashboard!$B$6))))))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <f>IF(OR(Dashboard!$B$3="LESS-10",Dashboard!$B$3="LESS-15"),0.499,IF(Dashboard!$B$3="LESS-20",0.62371,0.537))</f>
-        <v>0.53700000000000003</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
